--- a/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13700</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7233</v>
+        <v>7269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26115</v>
+        <v>24487</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01985394939584477</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01048217431724954</v>
+        <v>0.01053486014523793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03784560306641866</v>
+        <v>0.0354862889777099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>14052</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8370</v>
+        <v>8421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20998</v>
+        <v>20643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0192099738776704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0114426678551135</v>
+        <v>0.01151213285321279</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02870684184311474</v>
+        <v>0.02822146923379617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -783,19 +783,19 @@
         <v>27752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18752</v>
+        <v>18236</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40877</v>
+        <v>39478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01952257498549726</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01319160674493616</v>
+        <v>0.01282836744449223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02875608505926207</v>
+        <v>0.02777197419933093</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16799</v>
+        <v>16997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36931</v>
+        <v>37538</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03665321408751296</v>
+        <v>0.03665321408751294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02434521902529408</v>
+        <v>0.02463206342982372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05352064324561708</v>
+        <v>0.05439952409028034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -833,19 +833,19 @@
         <v>34915</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27045</v>
+        <v>26106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44721</v>
+        <v>44480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0477316264302624</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03697366383596034</v>
+        <v>0.03568913246086629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06113719178165016</v>
+        <v>0.06080785901781233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -854,19 +854,19 @@
         <v>60207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48053</v>
+        <v>48037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74685</v>
+        <v>75460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04235390030004547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03380434270160094</v>
+        <v>0.03379292059110068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0525390788759769</v>
+        <v>0.05308445954876099</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>67349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52743</v>
+        <v>54678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84645</v>
+        <v>86897</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09760243813810175</v>
+        <v>0.09760243813810171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07643449713116025</v>
+        <v>0.07923953211825602</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1226666787941438</v>
+        <v>0.1259307076073954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>186</v>
@@ -904,19 +904,19 @@
         <v>99293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85436</v>
+        <v>86261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>114092</v>
+        <v>114674</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1357428312677711</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1167995069798604</v>
+        <v>0.1179274452105543</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1559747550704512</v>
+        <v>0.1567696421442669</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>266</v>
@@ -925,19 +925,19 @@
         <v>166642</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>147640</v>
+        <v>146460</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188801</v>
+        <v>187880</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1172285728700498</v>
+        <v>0.1172285728700497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.103860784240637</v>
+        <v>0.1030311126995846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1328163978914105</v>
+        <v>0.1321689560291435</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>308180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>280399</v>
+        <v>281486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>335587</v>
+        <v>334588</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4466127158965388</v>
+        <v>0.4466127158965387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.40635332892409</v>
+        <v>0.4079280636903769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4863317459584897</v>
+        <v>0.4848830109658266</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>620</v>
@@ -975,19 +975,19 @@
         <v>345820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>323051</v>
+        <v>324217</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>368072</v>
+        <v>368079</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4727688523636643</v>
+        <v>0.4727688523636642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4416415343271384</v>
+        <v>0.4432350114965374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5031890254461917</v>
+        <v>0.5031994754962525</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>975</v>
@@ -996,19 +996,19 @@
         <v>654000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>613848</v>
+        <v>615993</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>689980</v>
+        <v>688779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4600720385790754</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4318261998296837</v>
+        <v>0.4333354618991798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4853835003183901</v>
+        <v>0.4845386178194071</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>275517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>247846</v>
+        <v>246824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304658</v>
+        <v>302121</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3992776824820018</v>
+        <v>0.3992776824820017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3591779760912277</v>
+        <v>0.3576956451530212</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4415093437284416</v>
+        <v>0.4378328647256188</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -1046,19 +1046,19 @@
         <v>237399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216648</v>
+        <v>216361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>259231</v>
+        <v>258932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3245467160606318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2961785740286145</v>
+        <v>0.295786532619408</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3543936425443162</v>
+        <v>0.3539850310797032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>597</v>
@@ -1067,19 +1067,19 @@
         <v>512916</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>473972</v>
+        <v>479882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>552363</v>
+        <v>552181</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3608229132653322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3334273949269128</v>
+        <v>0.3375846938670494</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3885728752499351</v>
+        <v>0.3884453579455193</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>11561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5500</v>
+        <v>5695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21320</v>
+        <v>21289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01102168169806357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005243514975061742</v>
+        <v>0.00542897436626398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02032559491352404</v>
+        <v>0.02029646102605686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1192,19 +1192,19 @@
         <v>15596</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9364</v>
+        <v>9245</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31629</v>
+        <v>30169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01459761087897476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008764902617615741</v>
+        <v>0.008653100122908056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02960441274362025</v>
+        <v>0.02823826466720555</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1213,19 +1213,19 @@
         <v>27157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17854</v>
+        <v>17799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42980</v>
+        <v>41849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01282608858726409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008432257389316848</v>
+        <v>0.008406654467525525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02029946711677477</v>
+        <v>0.01976540216127467</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>28180</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19372</v>
+        <v>19496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41679</v>
+        <v>41777</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02686605642807956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01846869272220049</v>
+        <v>0.01858679825059568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0397351906013796</v>
+        <v>0.03982872006867402</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>76</v>
@@ -1263,19 +1263,19 @@
         <v>50715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40956</v>
+        <v>40715</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62684</v>
+        <v>64800</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04746841827614014</v>
+        <v>0.04746841827614016</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03833465725018131</v>
+        <v>0.03810863025986341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05867143855787039</v>
+        <v>0.06065195804824648</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -1284,19 +1284,19 @@
         <v>78895</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64638</v>
+        <v>63868</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95203</v>
+        <v>95242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03726196802803184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03052831962212248</v>
+        <v>0.03016499688659514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04496403925087133</v>
+        <v>0.0449826044172867</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>98862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79620</v>
+        <v>79088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121454</v>
+        <v>120384</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09425182259038023</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07590649363389888</v>
+        <v>0.07539924227631553</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1157896763471599</v>
+        <v>0.1147694665163729</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>210</v>
@@ -1334,19 +1334,19 @@
         <v>131429</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114037</v>
+        <v>114424</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149256</v>
+        <v>150419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1230159058070408</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1067378262604281</v>
+        <v>0.1070992063443411</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1397016364559546</v>
+        <v>0.1407903297188272</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>316</v>
@@ -1355,19 +1355,19 @@
         <v>230291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>206456</v>
+        <v>201550</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>261127</v>
+        <v>257404</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1087661228720357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09750873435896701</v>
+        <v>0.09519187111352832</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1233300089073088</v>
+        <v>0.1215714522550757</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>454988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>418339</v>
+        <v>419146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>492829</v>
+        <v>490311</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4337695523897828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3988298365373546</v>
+        <v>0.3995987815163259</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4698452841101196</v>
+        <v>0.4674451171820246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>751</v>
@@ -1405,19 +1405,19 @@
         <v>496131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>467970</v>
+        <v>463883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>523600</v>
+        <v>523228</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4643736358297306</v>
+        <v>0.4643736358297307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4380149354324089</v>
+        <v>0.4341897143187289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4900840092233875</v>
+        <v>0.4897362309123534</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1204</v>
@@ -1426,19 +1426,19 @@
         <v>951119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>906873</v>
+        <v>903858</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>994787</v>
+        <v>999931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4492123131948607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4283149000619995</v>
+        <v>0.426890759047707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4698362559910926</v>
+        <v>0.4722660133095289</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>455325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>419263</v>
+        <v>418474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494340</v>
+        <v>492573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4340908868936938</v>
+        <v>0.4340908868936939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3997099320639315</v>
+        <v>0.3989582449198171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4712858297288219</v>
+        <v>0.4696016522141194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>455</v>
@@ -1476,19 +1476,19 @@
         <v>374517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345144</v>
+        <v>345937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>401607</v>
+        <v>404027</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3505444292081136</v>
+        <v>0.3505444292081138</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3230510003735447</v>
+        <v>0.323793378226439</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3758996154007077</v>
+        <v>0.3781654076132176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>817</v>
@@ -1497,19 +1497,19 @@
         <v>829843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>785612</v>
+        <v>782414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>882515</v>
+        <v>877016</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3919335073178078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.371043196171726</v>
+        <v>0.3695330727652112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4168106529005321</v>
+        <v>0.414213255528833</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>7253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2728</v>
+        <v>2697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16535</v>
+        <v>16260</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009042968264584781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003401398401577662</v>
+        <v>0.003362211406706481</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02061554390162777</v>
+        <v>0.02027182296508897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1622,19 +1622,19 @@
         <v>9962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3827</v>
+        <v>4517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20690</v>
+        <v>21141</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01231161613904768</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00472948487920572</v>
+        <v>0.005582660512638335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02557010458473717</v>
+        <v>0.02612741836937074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1643,19 +1643,19 @@
         <v>17215</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9422</v>
+        <v>9693</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29843</v>
+        <v>29227</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01068445733848081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005847451121014602</v>
+        <v>0.00601577549992623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01852187897226088</v>
+        <v>0.01813945232846954</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>14071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7414</v>
+        <v>7746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24212</v>
+        <v>23491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01754333339333186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009243721839490925</v>
+        <v>0.009657442367242969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03018656607664143</v>
+        <v>0.02928711288673673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1693,19 +1693,19 @@
         <v>20737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13761</v>
+        <v>13367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31902</v>
+        <v>31150</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0256275427811185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01700696436819753</v>
+        <v>0.01651983118218377</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03942682360177113</v>
+        <v>0.03849692294576056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1714,19 +1714,19 @@
         <v>34808</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25299</v>
+        <v>24962</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48560</v>
+        <v>48184</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02160315931854567</v>
+        <v>0.02160315931854568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01570185733308207</v>
+        <v>0.01549242731004081</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03013861404047785</v>
+        <v>0.02990517968095908</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>50298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36005</v>
+        <v>36621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>69837</v>
+        <v>69123</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0627087567458498</v>
+        <v>0.06270875674584979</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04488909626091215</v>
+        <v>0.04565665765826347</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08706921190399425</v>
+        <v>0.08617849359920576</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -1764,19 +1764,19 @@
         <v>61972</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49375</v>
+        <v>49732</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78347</v>
+        <v>76516</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07658859915966658</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0610210243081765</v>
+        <v>0.06146271775117558</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09682605549936184</v>
+        <v>0.09456303075497431</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -1785,19 +1785,19 @@
         <v>112269</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92701</v>
+        <v>94383</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>136926</v>
+        <v>136991</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06967910367360589</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05753410650962337</v>
+        <v>0.058578351120357</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08498185008682016</v>
+        <v>0.08502237414190796</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>399731</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>368638</v>
+        <v>369225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>432390</v>
+        <v>431885</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4983638450908821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4595985206971841</v>
+        <v>0.4603305901215912</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5390819437244553</v>
+        <v>0.5384520694436521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>559</v>
@@ -1835,19 +1835,19 @@
         <v>415082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>387840</v>
+        <v>388167</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>441625</v>
+        <v>441332</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5129861398713894</v>
+        <v>0.5129861398713893</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4793186250657303</v>
+        <v>0.4797224082780991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5457892078138589</v>
+        <v>0.5454273895107098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>907</v>
@@ -1856,19 +1856,19 @@
         <v>814813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>770912</v>
+        <v>765721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>859936</v>
+        <v>857079</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5057070457167475</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.478460273725906</v>
+        <v>0.4752385551551332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5337122593876555</v>
+        <v>0.531939263020904</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>330733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>301614</v>
+        <v>298430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>365403</v>
+        <v>362128</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4123410965053514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3760374740317531</v>
+        <v>0.372067733425671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4555661174341137</v>
+        <v>0.4514826812099885</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>363</v>
@@ -1906,19 +1906,19 @@
         <v>301397</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>275771</v>
+        <v>276231</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>328102</v>
+        <v>326930</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3724861020487779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3408165877344628</v>
+        <v>0.3413849895895069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4054899659817121</v>
+        <v>0.4040418194480747</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>623</v>
@@ -1927,19 +1927,19 @@
         <v>632130</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>590024</v>
+        <v>590554</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>671631</v>
+        <v>677878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.39232623395262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3661938520315792</v>
+        <v>0.3665226813082163</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4168421395310032</v>
+        <v>0.4207195328469085</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>10529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5465</v>
+        <v>5658</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18460</v>
+        <v>19278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01065811750105484</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005532302480508902</v>
+        <v>0.005727557284764923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01868566172361857</v>
+        <v>0.01951418779887663</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2052,19 +2052,19 @@
         <v>11898</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7075</v>
+        <v>7547</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18220</v>
+        <v>19210</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01065020578322471</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006332953013225563</v>
+        <v>0.006755309036233127</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01630973532730812</v>
+        <v>0.01719569232081509</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2073,19 +2073,19 @@
         <v>22427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14175</v>
+        <v>15098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31240</v>
+        <v>32984</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01065391880654731</v>
+        <v>0.0106539188065473</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006733825103898848</v>
+        <v>0.007172255940182872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01484066542984945</v>
+        <v>0.01566911473029562</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>32834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23965</v>
+        <v>23581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46012</v>
+        <v>45200</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03323550811952126</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02425836563430625</v>
+        <v>0.02386953637676813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04657503649386979</v>
+        <v>0.04575284006987838</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>85</v>
@@ -2123,19 +2123,19 @@
         <v>57826</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46256</v>
+        <v>46751</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70964</v>
+        <v>72446</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05176273468502259</v>
+        <v>0.05176273468502258</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04140590587387466</v>
+        <v>0.04184840952813498</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06352326931094457</v>
+        <v>0.06484982046158312</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -2144,19 +2144,19 @@
         <v>90660</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>74945</v>
+        <v>75348</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>108316</v>
+        <v>108948</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04306778046424387</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03560240125963921</v>
+        <v>0.03579391299060761</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05145531796593564</v>
+        <v>0.05175530982505919</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>93296</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76599</v>
+        <v>76644</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113533</v>
+        <v>112593</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09443685984996512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07753608151293823</v>
+        <v>0.07758121277758566</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1149214868957002</v>
+        <v>0.1139696480484846</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>199</v>
@@ -2194,19 +2194,19 @@
         <v>136718</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>118876</v>
+        <v>118671</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>157143</v>
+        <v>157274</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1223819464093144</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1064112989605631</v>
+        <v>0.1062271258211226</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1406653652203229</v>
+        <v>0.1407823793805328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>307</v>
@@ -2215,19 +2215,19 @@
         <v>230014</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>205089</v>
+        <v>204477</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>257910</v>
+        <v>257490</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1092671260410201</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09742692446486033</v>
+        <v>0.09713612943664648</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1225193564154239</v>
+        <v>0.1223197847937088</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>452169</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>419931</v>
+        <v>419998</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>483276</v>
+        <v>487121</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4576989969094437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4250669430953243</v>
+        <v>0.4251342797635867</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4891865557863685</v>
+        <v>0.4930786946338497</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>738</v>
@@ -2265,19 +2265,19 @@
         <v>505731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>475080</v>
+        <v>476938</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>533709</v>
+        <v>535838</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4527015621575826</v>
+        <v>0.4527015621575825</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4252644676985384</v>
+        <v>0.4269274533845033</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4777459260301639</v>
+        <v>0.4796515735889569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1217</v>
@@ -2286,19 +2286,19 @@
         <v>957900</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>912346</v>
+        <v>914241</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1003621</v>
+        <v>1000740</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4550468924872538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4334066597491523</v>
+        <v>0.4343069867508207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4767666381051969</v>
+        <v>0.475398021626871</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>399090</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>365293</v>
+        <v>367260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>433203</v>
+        <v>431527</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4039705176200151</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3697603266224191</v>
+        <v>0.3717511486329161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4385008053701028</v>
+        <v>0.4368043845684236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>518</v>
@@ -2336,19 +2336,19 @@
         <v>404967</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>379043</v>
+        <v>376282</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>436237</v>
+        <v>432325</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3625035509648559</v>
+        <v>0.3625035509648558</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3392972615698355</v>
+        <v>0.3368262769727704</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3904948947135851</v>
+        <v>0.3869927214875319</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>885</v>
@@ -2357,19 +2357,19 @@
         <v>804057</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>758705</v>
+        <v>762972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>846103</v>
+        <v>846439</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3819642822009351</v>
+        <v>0.3819642822009349</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3604201437756537</v>
+        <v>0.3624471400678904</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4019383914828037</v>
+        <v>0.4020978928697895</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>43043</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30049</v>
+        <v>30423</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57999</v>
+        <v>58389</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01219719293569244</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008515033333032272</v>
+        <v>0.008620876188467304</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01643521740562243</v>
+        <v>0.01654577651377582</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -2482,19 +2482,19 @@
         <v>51507</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38695</v>
+        <v>39298</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67964</v>
+        <v>68029</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01382317435319006</v>
+        <v>0.01382317435319007</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01038470615590315</v>
+        <v>0.01054655059598973</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01823959854440488</v>
+        <v>0.01825711671903485</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -2503,19 +2503,19 @@
         <v>94551</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76322</v>
+        <v>76865</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116073</v>
+        <v>116951</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01303228105684271</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01051980706545357</v>
+        <v>0.01059459841328445</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01599877904784335</v>
+        <v>0.01611982962836463</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>100378</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>78137</v>
+        <v>83002</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119890</v>
+        <v>121333</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02844396770870044</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02214171399871423</v>
+        <v>0.02352019161548561</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03397326242165979</v>
+        <v>0.03438203096017238</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>250</v>
@@ -2553,19 +2553,19 @@
         <v>164192</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>145581</v>
+        <v>143766</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>188398</v>
+        <v>188232</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04406473560504302</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03907006614391671</v>
+        <v>0.03858294681966928</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05056106750013895</v>
+        <v>0.05051630422635739</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>364</v>
@@ -2574,19 +2574,19 @@
         <v>264570</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>236333</v>
+        <v>236955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>292383</v>
+        <v>296968</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03646664101425209</v>
+        <v>0.03646664101425208</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0325746829279954</v>
+        <v>0.03266034482596112</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04030024217048588</v>
+        <v>0.04093222906730541</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>309805</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>274850</v>
+        <v>277383</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>346088</v>
+        <v>346623</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08778946727765576</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07788410034571777</v>
+        <v>0.07860189819888534</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09807095649774022</v>
+        <v>0.09822248664038913</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>682</v>
@@ -2624,19 +2624,19 @@
         <v>429411</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>395654</v>
+        <v>397123</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>461584</v>
+        <v>465159</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1152423754265125</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1061828284506114</v>
+        <v>0.106577222445192</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1238766686329855</v>
+        <v>0.1248362483219484</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1023</v>
@@ -2645,19 +2645,19 @@
         <v>739216</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>691408</v>
+        <v>694107</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>787476</v>
+        <v>790131</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1018890118600423</v>
+        <v>0.1018890118600422</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0952993648554596</v>
+        <v>0.09567138467903508</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.108540884767542</v>
+        <v>0.1089067972864593</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1615067</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1551911</v>
+        <v>1550043</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1679713</v>
+        <v>1680817</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4576612313229368</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4397645909152729</v>
+        <v>0.4392354513902784</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4759797617463169</v>
+        <v>0.4762927332067297</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2668</v>
@@ -2695,19 +2695,19 @@
         <v>1762765</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1704596</v>
+        <v>1711195</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1817685</v>
+        <v>1814755</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.4730786843271226</v>
+        <v>0.4730786843271227</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4574678015742682</v>
+        <v>0.4592388010930072</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4878179470309468</v>
+        <v>0.4870314113034711</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4303</v>
@@ -2716,19 +2716,19 @@
         <v>3377832</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3288178</v>
+        <v>3292737</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3471450</v>
+        <v>3463234</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4655794840923951</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4532220355905585</v>
+        <v>0.4538504584431223</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4784831992397954</v>
+        <v>0.4773507184075819</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>1460664</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1396017</v>
+        <v>1391391</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1526774</v>
+        <v>1525496</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4139081407550146</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3955890518945985</v>
+        <v>0.3942780809906279</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4326417165563635</v>
+        <v>0.432279533915326</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1681</v>
@@ -2766,19 +2766,19 @@
         <v>1318280</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1266851</v>
+        <v>1265327</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1377152</v>
+        <v>1371027</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3537910302881317</v>
+        <v>0.3537910302881318</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3399887280924871</v>
+        <v>0.3395797066128034</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3695905402340902</v>
+        <v>0.3679468147787068</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2922</v>
@@ -2787,19 +2787,19 @@
         <v>2778945</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2692468</v>
+        <v>2687743</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2867552</v>
+        <v>2865129</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3830325819764679</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3711131486245309</v>
+        <v>0.370461807737493</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3952456492576848</v>
+        <v>0.3949116131223193</v>
       </c>
     </row>
     <row r="33">
